--- a/zinfo/CosAndRegistrars.xlsx
+++ b/zinfo/CosAndRegistrars.xlsx
@@ -20,11 +20,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+  <si>
+    <t xml:space="preserve">Co Type</t>
+  </si>
   <si>
     <t xml:space="preserve">Name</t>
   </si>
   <si>
+    <t xml:space="preserve">Co Ticker</t>
+  </si>
+  <si>
     <t xml:space="preserve">Address 1</t>
   </si>
   <si>
@@ -46,6 +52,30 @@
     <t xml:space="preserve">email</t>
   </si>
   <si>
+    <t xml:space="preserve">Manages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al-noor Sugar Mill (Pvt) Limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALNRS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96-A, Sindhi Muslim Society</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karachi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3450161-63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registrar</t>
+  </si>
+  <si>
     <t xml:space="preserve">CDC Share Registrar Services Limited – Head Office – CDC House</t>
   </si>
   <si>
@@ -55,9 +85,6 @@
     <t xml:space="preserve">Main Shahra-e-Faisal</t>
   </si>
   <si>
-    <t xml:space="preserve">Karachi</t>
-  </si>
-  <si>
     <t xml:space="preserve">(92) 0800-23275</t>
   </si>
   <si>
@@ -85,32 +112,28 @@
     <t xml:space="preserve">M 13, Progressive Plaza, Plot No 5 – CL – 10</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Civil Lines Quarter, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Near P.I.D.C, Beaumont Road</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Al-noor Sugar Mill (Pvt) Limited</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96-A, Sindhi Muslim Society</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3450161-63</t>
+    <t xml:space="preserve">Civil Lines Quarter, Near P.I.D.C, Beaumont Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sitara Chemical Industries Limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THK Associates (Pvt.) Limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plot No. 32-C, Jami Commercial Street 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D.H.A. Phase VII</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9221 5310191-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sfc@thk.com.pk</t>
   </si>
 </sst>
 </file>
@@ -151,8 +174,10 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -197,7 +222,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -207,6 +232,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -223,6 +252,23 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0000FF"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -337,26 +383,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="55.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="35.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="41.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="6.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="5.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="55.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="35.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="41.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="6.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="5.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="14.93"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -380,88 +428,153 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
+      <c r="A2" s="0" t="s">
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>74400</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>74400</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>75530</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="n">
-        <v>74400</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>75530</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>74400</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>24</v>
+      <c r="G7" s="1" t="n">
+        <v>75500</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" display="info@cdcsrl.com"/>
-    <hyperlink ref="H3" r:id="rId2" display="info@cdcsrl.com"/>
+    <hyperlink ref="J3" r:id="rId1" display="info@cdcsrl.com"/>
+    <hyperlink ref="J4" r:id="rId2" display="info@cdcsrl.com"/>
+    <hyperlink ref="J7" r:id="rId3" display="sfc@thk.com.pk"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/zinfo/CosAndRegistrars.xlsx
+++ b/zinfo/CosAndRegistrars.xlsx
@@ -20,21 +20,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
-  <si>
-    <t xml:space="preserve">Co Type</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="67">
+  <si>
+    <t xml:space="preserve">CoType</t>
   </si>
   <si>
     <t xml:space="preserve">Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Co Ticker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address 2</t>
+    <t xml:space="preserve">CoTicker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Folio1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address2</t>
   </si>
   <si>
     <t xml:space="preserve">City</t>
@@ -43,10 +46,10 @@
     <t xml:space="preserve">Zip</t>
   </si>
   <si>
-    <t xml:space="preserve">Tel 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tel 2</t>
+    <t xml:space="preserve">Tel1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tel2</t>
   </si>
   <si>
     <t xml:space="preserve">email</t>
@@ -55,19 +58,55 @@
     <t xml:space="preserve">Manages</t>
   </si>
   <si>
+    <t xml:space="preserve">TotalShares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MissingShares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MissingFolio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MissingCerts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DistNrsFromTo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NrOfShares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TotalMissing</t>
+  </si>
+  <si>
     <t xml:space="preserve">Company</t>
   </si>
   <si>
+    <t xml:space="preserve">Abbott Laboratories (Pakistan) Limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opposite Radio Pakistan Transmission Centre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hyderabad Road, Landhi, P.O. Box 7229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karachi</t>
+  </si>
+  <si>
     <t xml:space="preserve">Al-noor Sugar Mill (Pvt) Limited</t>
   </si>
   <si>
     <t xml:space="preserve">ALNRS</t>
   </si>
   <si>
-    <t xml:space="preserve">96-A, Sindhi Muslim Society</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karachi</t>
+    <t xml:space="preserve">96-A,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sindhi Muslim Society</t>
   </si>
   <si>
     <t xml:space="preserve">3450161-63</t>
@@ -115,6 +154,72 @@
     <t xml:space="preserve">Civil Lines Quarter, Near P.I.D.C, Beaumont Road</t>
   </si>
   <si>
+    <t xml:space="preserve">Rafhan Maize Products Company Limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMPL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rakh Canal East Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faisalabad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reckitt Benckiser Pakistan Limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBPL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2872, 4727</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">rd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Floor, Tenancy 04-05, Corporate Office Block Dolman City</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">HC-3, Block 4, Scheme-5, Clifton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0800 82273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21377, 72787, 9981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4338448 – 4338547, 13890511 – 13890536, 19231218 – 19231245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100, 26, 28</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sitara Chemical Industries Limited</t>
   </si>
   <si>
@@ -134,6 +239,15 @@
   </si>
   <si>
     <t xml:space="preserve">sfc@thk.com.pk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unilever Foods Pakistan Limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPFL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avari Plaza, Fatima Jinnah Road</t>
   </si>
 </sst>
 </file>
@@ -173,8 +287,8 @@
       <charset val="1"/>
     </font>
     <font>
+      <vertAlign val="superscript"/>
       <sz val="10"/>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -239,8 +353,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -252,23 +366,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0000FF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -383,28 +480,33 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="S9" activeCellId="0" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="55.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="35.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="41.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="6.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="5.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="14.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="6.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="35.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="41.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="7.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="6.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="5.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="14.93"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -434,147 +536,303 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>11</v>
+      <c r="A2" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>2715</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>1269</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="1" t="n">
         <v>74400</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="I3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>74400</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>75530</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>74400</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>567</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>75800</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M8" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="N8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>2872</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>75530</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="1" t="n">
+      <c r="H10" s="1" t="n">
         <v>75500</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>32</v>
+      <c r="I10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>567</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>45530</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J3" r:id="rId1" display="info@cdcsrl.com"/>
-    <hyperlink ref="J4" r:id="rId2" display="info@cdcsrl.com"/>
-    <hyperlink ref="J7" r:id="rId3" display="sfc@thk.com.pk"/>
+    <hyperlink ref="K4" r:id="rId1" display="info@cdcsrl.com"/>
+    <hyperlink ref="K5" r:id="rId2" display="info@cdcsrl.com"/>
+    <hyperlink ref="K10" r:id="rId3" display="sfc@thk.com.pk"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/zinfo/CosAndRegistrars.xlsx
+++ b/zinfo/CosAndRegistrars.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
   <si>
     <t xml:space="preserve">CoType</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t xml:space="preserve">RMPL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">562, 567</t>
   </si>
   <si>
     <t xml:space="preserve">Rakh Canal East Road</t>
@@ -483,11 +486,11 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S9" activeCellId="0" sqref="S9"/>
+      <selection pane="bottomRight" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -548,19 +551,19 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -698,14 +701,14 @@
       <c r="C7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="1" t="n">
-        <v>567</v>
+      <c r="D7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M7" s="1" t="n">
         <v>82</v>
@@ -716,19 +719,19 @@
         <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>24</v>
@@ -737,7 +740,7 @@
         <v>75800</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M8" s="1" t="n">
         <v>21</v>
@@ -745,19 +748,19 @@
       <c r="N8" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="O8" s="1" t="n">
         <v>2872</v>
       </c>
-      <c r="P8" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q8" s="0" t="s">
+      <c r="P8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R8" s="0" t="s">
+      <c r="Q8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S8" s="0" t="n">
+      <c r="R8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S8" s="1" t="n">
         <v>154</v>
       </c>
     </row>
@@ -766,10 +769,10 @@
         <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -777,13 +780,13 @@
         <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>24</v>
@@ -792,13 +795,13 @@
         <v>75500</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M10" s="1"/>
     </row>
@@ -807,16 +810,16 @@
         <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>567</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>24</v>

--- a/zinfo/CosAndRegistrars.xlsx
+++ b/zinfo/CosAndRegistrars.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="76">
   <si>
     <t xml:space="preserve">CoType</t>
   </si>
@@ -221,6 +221,30 @@
   </si>
   <si>
     <t xml:space="preserve">100, 26, 28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shell Pakistan Limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KHAN0309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shell House 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ch. Khaliquzzaman Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76659, 112456, 173212, 173213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5759872 – 5759891, 8679829 – 8679863, 16874829 – 16874928, 16874929 – 16875021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20, 35, 100, 93</t>
   </si>
   <si>
     <t xml:space="preserve">Sitara Chemical Industries Limited</t>
@@ -369,6 +393,23 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0000FF"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -483,14 +524,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="A12" activeCellId="0" sqref="A2:S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -774,60 +815,104 @@
       <c r="C9" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="D9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>1768</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>248</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <v>248</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <v>75500</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M10" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>567</v>
+        <v>68</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H11" s="1" t="n">
+        <v>75500</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>567</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="1" t="n">
         <v>45530</v>
       </c>
-      <c r="M11" s="1" t="n">
+      <c r="M12" s="1" t="n">
         <v>55</v>
       </c>
     </row>
@@ -835,7 +920,7 @@
   <hyperlinks>
     <hyperlink ref="K4" r:id="rId1" display="info@cdcsrl.com"/>
     <hyperlink ref="K5" r:id="rId2" display="info@cdcsrl.com"/>
-    <hyperlink ref="K10" r:id="rId3" display="sfc@thk.com.pk"/>
+    <hyperlink ref="K11" r:id="rId3" display="sfc@thk.com.pk"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/zinfo/CosAndRegistrars.xlsx
+++ b/zinfo/CosAndRegistrars.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="77">
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
   <si>
     <t xml:space="preserve">CoType</t>
   </si>
@@ -281,8 +284,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -363,8 +367,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -393,23 +401,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0000FF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -524,403 +515,440 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A12" activeCellId="0" sqref="A2:S12"/>
+      <selection pane="bottomRight" activeCell="A2" activeCellId="0" sqref="A:A"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="55.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="6.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="35.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="41.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="7.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="6.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="5.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="14.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="8.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="55.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="9.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="6.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="35.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="41.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="7.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="6.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="17.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="5.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="14.93"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="n">
         <v>2715</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="2" t="n">
         <v>1269</v>
       </c>
-      <c r="N2" s="1" t="n">
+      <c r="O2" s="2" t="n">
         <v>160</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="1" t="n">
+      <c r="I3" s="2" t="n">
         <v>74400</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>29</v>
+      <c r="J3" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="1" t="n">
+      <c r="G4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="2" t="n">
         <v>74400</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="L4" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="1" t="n">
+      <c r="G6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="2" t="n">
         <v>75530</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M7" s="1" t="n">
+      <c r="H7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="2" t="n">
         <v>82</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="1" t="n">
+      <c r="G8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="2" t="n">
         <v>75800</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M8" s="1" t="n">
+      <c r="J8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="N8" s="1" t="n">
+      <c r="O8" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="O8" s="1" t="n">
+      <c r="P8" s="2" t="n">
         <v>2872</v>
       </c>
-      <c r="P8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q8" s="1" t="s">
+      <c r="Q8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="R8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="S8" s="1" t="n">
+      <c r="S8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="T8" s="2" t="n">
         <v>154</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="0" t="n">
+      <c r="G9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="2" t="n">
         <v>1768</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="O9" s="2" t="n">
         <v>248</v>
       </c>
-      <c r="O9" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="P9" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q9" s="0" t="s">
+      <c r="P9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q9" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="R9" s="0" t="s">
+      <c r="R9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="S9" s="0" t="n">
+      <c r="S9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="T9" s="2" t="n">
         <v>248</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="D10" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>75500</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="1" t="n">
-        <v>75500</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M11" s="1"/>
+      <c r="N11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="2" t="n">
         <v>567</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="1" t="n">
+      <c r="F12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="2" t="n">
         <v>45530</v>
       </c>
-      <c r="M12" s="1" t="n">
+      <c r="N12" s="2" t="n">
         <v>55</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K4" r:id="rId1" display="info@cdcsrl.com"/>
-    <hyperlink ref="K5" r:id="rId2" display="info@cdcsrl.com"/>
-    <hyperlink ref="K11" r:id="rId3" display="sfc@thk.com.pk"/>
+    <hyperlink ref="L4" r:id="rId1" display="info@cdcsrl.com"/>
+    <hyperlink ref="L5" r:id="rId2" display="info@cdcsrl.com"/>
+    <hyperlink ref="L11" r:id="rId3" display="sfc@thk.com.pk"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/zinfo/CosAndRegistrars.xlsx
+++ b/zinfo/CosAndRegistrars.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="82">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -146,6 +146,45 @@
   </si>
   <si>
     <t xml:space="preserve">(92-42) 36362061-66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haleon Pakistan Limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HALEON</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">11-A, 11</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Floor, Sky Tower (East Wing)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Dolmen City, HC-3, Block 4, Scheme-5, Clifton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">021 111 425 366</t>
   </si>
   <si>
     <t xml:space="preserve">M/s. C &amp; K Management Associates (Pvt) Limited</t>
@@ -288,7 +327,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -316,6 +355,17 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
@@ -367,12 +417,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -381,6 +431,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -401,6 +455,23 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0000FF"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -515,14 +586,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" activeCellId="0" sqref="A:A"/>
+      <selection pane="bottomRight" activeCell="A2" activeCellId="0" sqref="A2:T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -721,56 +792,62 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="E6" s="2" t="n">
+        <v>403</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="G6" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>75530</v>
+        <v>75600</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="G7" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="H7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7" s="2" t="n">
-        <v>82</v>
+        <v>25</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>75530</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>20</v>
@@ -784,163 +861,189 @@
       <c r="E8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>75800</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="N8" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="O8" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="P8" s="2" t="n">
-        <v>2872</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="T8" s="2" t="n">
-        <v>154</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="I9" s="2" t="n">
+        <v>75800</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="N9" s="2" t="n">
-        <v>1768</v>
+        <v>21</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>248</v>
-      </c>
-      <c r="P9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" s="2" t="n">
+        <v>2872</v>
+      </c>
+      <c r="Q9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="Q9" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="R9" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>248</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>68</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="2" t="n">
+        <v>1768</v>
+      </c>
+      <c r="O10" s="2" t="n">
+        <v>248</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="T10" s="2" t="n">
+        <v>248</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>75500</v>
-      </c>
-      <c r="J11" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="M11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="2" t="n">
-        <v>567</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>76</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="I12" s="2" t="n">
+        <v>75500</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>567</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="2" t="n">
         <v>45530</v>
       </c>
-      <c r="N12" s="2" t="n">
+      <c r="N13" s="2" t="n">
         <v>55</v>
       </c>
     </row>
@@ -948,7 +1051,7 @@
   <hyperlinks>
     <hyperlink ref="L4" r:id="rId1" display="info@cdcsrl.com"/>
     <hyperlink ref="L5" r:id="rId2" display="info@cdcsrl.com"/>
-    <hyperlink ref="L11" r:id="rId3" display="sfc@thk.com.pk"/>
+    <hyperlink ref="L12" r:id="rId3" display="sfc@thk.com.pk"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/zinfo/CosAndRegistrars.xlsx
+++ b/zinfo/CosAndRegistrars.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="93">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -34,6 +34,9 @@
     <t xml:space="preserve">CoTicker</t>
   </si>
   <si>
+    <t xml:space="preserve">Registrar</t>
+  </si>
+  <si>
     <t xml:space="preserve">Folio1</t>
   </si>
   <si>
@@ -115,9 +118,6 @@
     <t xml:space="preserve">3450161-63</t>
   </si>
   <si>
-    <t xml:space="preserve">Registrar</t>
-  </si>
-  <si>
     <t xml:space="preserve">CDC Share Registrar Services Limited – Head Office – CDC House</t>
   </si>
   <si>
@@ -146,6 +146,21 @@
   </si>
   <si>
     <t xml:space="preserve">(92-42) 36362061-66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exide Pakistan Limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXIDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THKA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A 44, Hill Street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off. Manghopir Road, S.I.T.E.</t>
   </si>
   <si>
     <t xml:space="preserve">Haleon Pakistan Limited</t>
@@ -159,6 +174,7 @@
         <sz val="10"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">11-A, 11</t>
     </r>
@@ -168,6 +184,7 @@
         <sz val="10"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">th</t>
     </r>
@@ -176,6 +193,7 @@
         <sz val="10"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Floor, Sky Tower (East Wing)</t>
     </r>
@@ -265,28 +283,46 @@
     <t xml:space="preserve">100, 26, 28</t>
   </si>
   <si>
+    <t xml:space="preserve">Service Industries Limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRVI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08-0083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servis House</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Main Gulberg, Jail Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92 42 35751990-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KHAN0309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76659, 112456, 173212, 173213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5759872 – 5759891, 8679829 – 8679863, 16874829 – 16874928, 16874929 – 16875021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20, 35, 100, 93</t>
+  </si>
+  <si>
     <t xml:space="preserve">Shell Pakistan Limited</t>
   </si>
   <si>
     <t xml:space="preserve">SHEL</t>
   </si>
   <si>
-    <t xml:space="preserve">KHAN0309</t>
-  </si>
-  <si>
     <t xml:space="preserve">Shell House 6</t>
   </si>
   <si>
     <t xml:space="preserve">Ch. Khaliquzzaman Road</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76659, 112456, 173212, 173213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5759872 – 5759891, 8679829 – 8679863, 16874829 – 16874928, 16874929 – 16875021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20, 35, 100, 93</t>
   </si>
   <si>
     <t xml:space="preserve">Sitara Chemical Industries Limited</t>
@@ -360,12 +396,14 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
@@ -417,7 +455,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -427,6 +465,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -586,14 +628,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" activeCellId="0" sqref="A2:T13"/>
+      <selection pane="bottomRight" activeCell="U15" activeCellId="0" sqref="B2:U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -602,18 +644,18 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="8.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="55.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="9.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="6.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="35.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="41.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="7.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="6.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="17.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="5.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="14.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="2" width="6.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="35.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="41.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="7.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="6.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="17.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="5.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="14.93"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -673,25 +715,26 @@
       <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="3" t="n">
+        <f aca="false">ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2" t="n">
         <v>2715</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>24</v>
@@ -699,103 +742,110 @@
       <c r="H2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="2" t="n">
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="2" t="n">
         <v>1269</v>
       </c>
-      <c r="O2" s="2" t="n">
+      <c r="P2" s="2" t="n">
         <v>160</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="3" t="n">
+        <f aca="false">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="2" t="n">
         <v>74400</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>30</v>
+      <c r="K3" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="3" t="n">
+        <f aca="false">ROW()-1</f>
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="2" t="n">
         <v>74400</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="3" t="n">
+        <f aca="false">ROW()-1</f>
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>12</v>
+      <c r="A6" s="3" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>42</v>
@@ -803,80 +853,83 @@
       <c r="D6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="2" t="n">
-        <v>403</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>75600</v>
-      </c>
-      <c r="J6" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="I6" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" s="3" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>48</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>403</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="2" t="n">
+      <c r="H7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>75600</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="2" t="n">
         <v>75530</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="N8" s="2" t="n">
-        <v>82</v>
-      </c>
-    </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" s="3" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>55</v>
@@ -884,174 +937,248 @@
       <c r="D9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="G9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="2" t="n">
+      <c r="O9" s="2" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="2" t="n">
         <v>75800</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N9" s="2" t="n">
+      <c r="K10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="O9" s="2" t="n">
+      <c r="P10" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="P9" s="2" t="n">
+      <c r="Q10" s="2" t="n">
         <v>2872</v>
       </c>
-      <c r="Q9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="T9" s="2" t="n">
+      <c r="R10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="U10" s="2" t="n">
         <v>154</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N10" s="2" t="n">
-        <v>1768</v>
-      </c>
-      <c r="O10" s="2" t="n">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>54662</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O11" s="2" t="n">
+        <v>990</v>
+      </c>
+      <c r="P11" s="2" t="n">
         <v>248</v>
       </c>
-      <c r="P10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="T10" s="2" t="n">
+      <c r="Q11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="U11" s="2" t="n">
         <v>248</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" s="3" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O12" s="2" t="n">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="2" t="n">
         <v>75500</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="2" t="n">
+      <c r="K14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="2" t="n">
         <v>567</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="2" t="n">
+      <c r="G15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="2" t="n">
         <v>45530</v>
       </c>
-      <c r="N13" s="2" t="n">
+      <c r="O15" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="P15" s="2" t="n">
+        <f aca="false">495+99+79+63</f>
+        <v>736</v>
+      </c>
+      <c r="U15" s="2" t="n">
+        <v>736</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L4" r:id="rId1" display="info@cdcsrl.com"/>
-    <hyperlink ref="L5" r:id="rId2" display="info@cdcsrl.com"/>
-    <hyperlink ref="L12" r:id="rId3" display="sfc@thk.com.pk"/>
+    <hyperlink ref="M4" r:id="rId1" display="info@cdcsrl.com"/>
+    <hyperlink ref="M5" r:id="rId2" display="info@cdcsrl.com"/>
+    <hyperlink ref="M14" r:id="rId3" display="sfc@thk.com.pk"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
